--- a/Health/HealthCare Facilities/HealthCareNoOfGraduates.xlsx
+++ b/Health/HealthCare Facilities/HealthCareNoOfGraduates.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junen\Documents\BAVP\Health\HealthCare Facilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC66A63F-2989-4303-8B35-DFFBCB1590F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC50A4C-0EB5-40D1-A822-30E7053FE257}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HealthCareNoOfGraduates" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="6">
   <si>
     <t>Faculty</t>
   </si>
@@ -33,11 +33,17 @@
   <si>
     <t>Health Science</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. of Graduates </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -872,167 +878,399 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>2008</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2009</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2010</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2011</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2012</v>
-      </c>
-      <c r="G1" s="1">
-        <v>2013</v>
-      </c>
-      <c r="H1" s="1">
-        <v>2014</v>
-      </c>
-      <c r="I1" s="1">
-        <v>2015</v>
-      </c>
-      <c r="J1" s="1">
-        <v>2016</v>
-      </c>
-      <c r="K1" s="1">
-        <v>2017</v>
-      </c>
-      <c r="L1" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>2008</v>
+      </c>
+      <c r="C2">
         <v>227</v>
       </c>
-      <c r="C2">
-        <v>219</v>
-      </c>
-      <c r="D2">
-        <v>228</v>
-      </c>
-      <c r="E2">
-        <v>255</v>
-      </c>
-      <c r="F2">
-        <v>252</v>
-      </c>
-      <c r="G2">
-        <v>258</v>
-      </c>
-      <c r="H2">
-        <v>261</v>
-      </c>
-      <c r="I2">
-        <v>252</v>
-      </c>
-      <c r="J2">
-        <v>278</v>
-      </c>
-      <c r="K2">
-        <v>301</v>
-      </c>
-      <c r="L2">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>2008</v>
+      </c>
+      <c r="C3">
         <v>35</v>
       </c>
-      <c r="C3">
-        <v>31</v>
-      </c>
-      <c r="D3">
-        <v>41</v>
-      </c>
-      <c r="E3">
-        <v>42</v>
-      </c>
-      <c r="F3">
-        <v>42</v>
-      </c>
-      <c r="G3">
-        <v>48</v>
-      </c>
-      <c r="H3">
-        <v>45</v>
-      </c>
-      <c r="I3">
-        <v>51</v>
-      </c>
-      <c r="J3">
-        <v>53</v>
-      </c>
-      <c r="K3">
-        <v>56</v>
-      </c>
-      <c r="L3">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
         <v>87</v>
       </c>
-      <c r="C4">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2009</v>
+      </c>
+      <c r="C5">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2009</v>
+      </c>
+      <c r="C7">
         <v>129</v>
       </c>
-      <c r="D4">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2010</v>
+      </c>
+      <c r="C9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>2010</v>
+      </c>
+      <c r="C10">
         <v>235</v>
       </c>
-      <c r="E4">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2011</v>
+      </c>
+      <c r="C11">
         <v>255</v>
       </c>
-      <c r="F4">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2011</v>
+      </c>
+      <c r="C12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>2011</v>
+      </c>
+      <c r="C13">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>2012</v>
+      </c>
+      <c r="C14">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2012</v>
+      </c>
+      <c r="C15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>2012</v>
+      </c>
+      <c r="C16">
         <v>279</v>
       </c>
-      <c r="G4">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>2013</v>
+      </c>
+      <c r="C17">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>2013</v>
+      </c>
+      <c r="C18">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2013</v>
+      </c>
+      <c r="C19">
         <v>391</v>
       </c>
-      <c r="H4">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>2014</v>
+      </c>
+      <c r="C20">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>2014</v>
+      </c>
+      <c r="C21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>2014</v>
+      </c>
+      <c r="C22">
         <v>433</v>
       </c>
-      <c r="I4">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2015</v>
+      </c>
+      <c r="C23">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>2015</v>
+      </c>
+      <c r="C24">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25">
+        <v>2015</v>
+      </c>
+      <c r="C25">
         <v>481</v>
       </c>
-      <c r="J4">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>2016</v>
+      </c>
+      <c r="C26">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>2016</v>
+      </c>
+      <c r="C27">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>2016</v>
+      </c>
+      <c r="C28">
         <v>480</v>
       </c>
-      <c r="K4">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>2017</v>
+      </c>
+      <c r="C29">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>2017</v>
+      </c>
+      <c r="C30">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>2017</v>
+      </c>
+      <c r="C31">
         <v>552</v>
       </c>
-      <c r="L4">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>2018</v>
+      </c>
+      <c r="C32">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>2018</v>
+      </c>
+      <c r="C33">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>2018</v>
+      </c>
+      <c r="C34">
         <v>535</v>
       </c>
     </row>

--- a/Health/HealthCare Facilities/HealthCareNoOfGraduates.xlsx
+++ b/Health/HealthCare Facilities/HealthCareNoOfGraduates.xlsx
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junen\Documents\BAVP\Health\HealthCare Facilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC50A4C-0EB5-40D1-A822-30E7053FE257}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FFF080-76A0-461A-8703-36C337AF833C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HealthCareNoOfGraduates" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -882,14 +890,14 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="54.5546875" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" customWidth="1"/>
+    <col min="3" max="3" width="40.5546875" customWidth="1"/>
     <col min="4" max="4" width="10.109375" customWidth="1"/>
     <col min="6" max="6" width="12.109375" customWidth="1"/>
     <col min="7" max="7" width="13.109375" customWidth="1"/>
